--- a/Code/Results/Cases/Case_4_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021630382059717</v>
+        <v>1.048424262002884</v>
       </c>
       <c r="D2">
-        <v>1.036707794910149</v>
+        <v>1.050466937145047</v>
       </c>
       <c r="E2">
-        <v>1.036948582454595</v>
+        <v>1.061821906073496</v>
       </c>
       <c r="F2">
-        <v>1.039119992993884</v>
+        <v>1.068790066389022</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055857349899924</v>
+        <v>1.046123027601769</v>
       </c>
       <c r="J2">
-        <v>1.043182834005456</v>
+        <v>1.053468087355162</v>
       </c>
       <c r="K2">
-        <v>1.047678365176747</v>
+        <v>1.05322113440855</v>
       </c>
       <c r="L2">
-        <v>1.047916089364488</v>
+        <v>1.064544924738974</v>
       </c>
       <c r="M2">
-        <v>1.050059954746833</v>
+        <v>1.071494306675087</v>
       </c>
       <c r="N2">
-        <v>1.044664273284487</v>
+        <v>1.054964132873685</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026648730709895</v>
+        <v>1.049462215234939</v>
       </c>
       <c r="D3">
-        <v>1.040567554312038</v>
+        <v>1.051275161843366</v>
       </c>
       <c r="E3">
-        <v>1.041787637076024</v>
+        <v>1.062882318556933</v>
       </c>
       <c r="F3">
-        <v>1.04452070310461</v>
+        <v>1.069991803287285</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057753077175739</v>
+        <v>1.04644136644952</v>
       </c>
       <c r="J3">
-        <v>1.046438377036565</v>
+        <v>1.054154478011151</v>
       </c>
       <c r="K3">
-        <v>1.050706400885955</v>
+        <v>1.053841822157775</v>
       </c>
       <c r="L3">
-        <v>1.051912362136868</v>
+        <v>1.065419414454857</v>
       </c>
       <c r="M3">
-        <v>1.054613942857603</v>
+        <v>1.072511131815288</v>
       </c>
       <c r="N3">
-        <v>1.047924439560116</v>
+        <v>1.055651498283135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029823616452511</v>
+        <v>1.050133906502342</v>
       </c>
       <c r="D4">
-        <v>1.043011114725837</v>
+        <v>1.051798071366729</v>
       </c>
       <c r="E4">
-        <v>1.044854205693382</v>
+        <v>1.063568942066999</v>
       </c>
       <c r="F4">
-        <v>1.047944388002356</v>
+        <v>1.070770173041282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058941322378874</v>
+        <v>1.046646015278282</v>
       </c>
       <c r="J4">
-        <v>1.048494019164932</v>
+        <v>1.054598085243874</v>
       </c>
       <c r="K4">
-        <v>1.052616733398522</v>
+        <v>1.054242730077543</v>
       </c>
       <c r="L4">
-        <v>1.054439819512848</v>
+        <v>1.065985130371908</v>
       </c>
       <c r="M4">
-        <v>1.057496654602757</v>
+        <v>1.073169274899656</v>
       </c>
       <c r="N4">
-        <v>1.049983000936091</v>
+        <v>1.056095735489012</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031141704746605</v>
+        <v>1.050416301513871</v>
       </c>
       <c r="D5">
-        <v>1.044025932032921</v>
+        <v>1.052017886288723</v>
       </c>
       <c r="E5">
-        <v>1.046128526723483</v>
+        <v>1.063857710015529</v>
       </c>
       <c r="F5">
-        <v>1.049367414137496</v>
+        <v>1.071097583147129</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059431934600629</v>
+        <v>1.046731729281459</v>
       </c>
       <c r="J5">
-        <v>1.049346450798986</v>
+        <v>1.05478444990666</v>
       </c>
       <c r="K5">
-        <v>1.053408500057824</v>
+        <v>1.054411099521599</v>
       </c>
       <c r="L5">
-        <v>1.055488899073014</v>
+        <v>1.066222924399436</v>
       </c>
       <c r="M5">
-        <v>1.058693808375855</v>
+        <v>1.073446003622453</v>
       </c>
       <c r="N5">
-        <v>1.050836643120841</v>
+        <v>1.056282364810995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031362061231851</v>
+        <v>1.050463717822441</v>
       </c>
       <c r="D6">
-        <v>1.044195606922806</v>
+        <v>1.052054793215427</v>
       </c>
       <c r="E6">
-        <v>1.046341636188949</v>
+        <v>1.063906201956747</v>
       </c>
       <c r="F6">
-        <v>1.049605410558369</v>
+        <v>1.071152567507862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059513794719703</v>
+        <v>1.046746102250023</v>
       </c>
       <c r="J6">
-        <v>1.049488900193789</v>
+        <v>1.054815733854946</v>
       </c>
       <c r="K6">
-        <v>1.053540787445625</v>
+        <v>1.054439359385155</v>
       </c>
       <c r="L6">
-        <v>1.055664269142952</v>
+        <v>1.066262849129781</v>
       </c>
       <c r="M6">
-        <v>1.058893968022344</v>
+        <v>1.073492470255293</v>
       </c>
       <c r="N6">
-        <v>1.050979294810124</v>
+        <v>1.056313693186075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029841293299228</v>
+        <v>1.050137679815202</v>
       </c>
       <c r="D7">
-        <v>1.043024723110966</v>
+        <v>1.051801008608879</v>
       </c>
       <c r="E7">
-        <v>1.044871290861716</v>
+        <v>1.063572800160721</v>
       </c>
       <c r="F7">
-        <v>1.04796346567278</v>
+        <v>1.070774547190042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058947912688648</v>
+        <v>1.046647161851947</v>
       </c>
       <c r="J7">
-        <v>1.048505455058598</v>
+        <v>1.054600575960002</v>
       </c>
       <c r="K7">
-        <v>1.052627357062405</v>
+        <v>1.05424498051538</v>
       </c>
       <c r="L7">
-        <v>1.054453889603849</v>
+        <v>1.065988307916848</v>
       </c>
       <c r="M7">
-        <v>1.057512708185314</v>
+        <v>1.073172972384029</v>
       </c>
       <c r="N7">
-        <v>1.049994453070038</v>
+        <v>1.056098229742241</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023341753069287</v>
+        <v>1.048775029570439</v>
       </c>
       <c r="D8">
-        <v>1.038023678933175</v>
+        <v>1.050740093832206</v>
       </c>
       <c r="E8">
-        <v>1.038597720348521</v>
+        <v>1.062180180962782</v>
       </c>
       <c r="F8">
-        <v>1.040960304549621</v>
+        <v>1.069196040574343</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056506142504432</v>
+        <v>1.046230888612707</v>
       </c>
       <c r="J8">
-        <v>1.044293867167321</v>
+        <v>1.053700166669133</v>
       </c>
       <c r="K8">
-        <v>1.048712097104369</v>
+        <v>1.053431047388879</v>
       </c>
       <c r="L8">
-        <v>1.049279060917433</v>
+        <v>1.064840491053614</v>
       </c>
       <c r="M8">
-        <v>1.051612618008215</v>
+        <v>1.071837908352729</v>
       </c>
       <c r="N8">
-        <v>1.045776884240879</v>
+        <v>1.055196541766902</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0113021807426</v>
+        <v>1.046374363984585</v>
       </c>
       <c r="D9">
-        <v>1.028775725685531</v>
+        <v>1.048870141849277</v>
       </c>
       <c r="E9">
-        <v>1.027018871244414</v>
+        <v>1.059729777569696</v>
       </c>
       <c r="F9">
-        <v>1.02804340552337</v>
+        <v>1.066420365995713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051896186054465</v>
+        <v>1.045487121857094</v>
       </c>
       <c r="J9">
-        <v>1.036462046972508</v>
+        <v>1.052109449866972</v>
       </c>
       <c r="K9">
-        <v>1.041418572577953</v>
+        <v>1.051991299342667</v>
       </c>
       <c r="L9">
-        <v>1.039688284643084</v>
+        <v>1.062816840479855</v>
       </c>
       <c r="M9">
-        <v>1.04069731223383</v>
+        <v>1.069486800678214</v>
       </c>
       <c r="N9">
-        <v>1.037933941963067</v>
+        <v>1.053603565964424</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002832268286701</v>
+        <v>1.044774240967651</v>
       </c>
       <c r="D10">
-        <v>1.022284307528664</v>
+        <v>1.047623206370883</v>
       </c>
       <c r="E10">
-        <v>1.018903607725155</v>
+        <v>1.058098575892874</v>
       </c>
       <c r="F10">
-        <v>1.018994712559589</v>
+        <v>1.064573839087166</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048596714811867</v>
+        <v>1.044984397864271</v>
       </c>
       <c r="J10">
-        <v>1.030933963358125</v>
+        <v>1.051046232654669</v>
       </c>
       <c r="K10">
-        <v>1.036262540327176</v>
+        <v>1.051027784218048</v>
       </c>
       <c r="L10">
-        <v>1.032939738598831</v>
+        <v>1.061467033411151</v>
       </c>
       <c r="M10">
-        <v>1.033029276654356</v>
+        <v>1.067920359777742</v>
       </c>
       <c r="N10">
-        <v>1.032398007835871</v>
+        <v>1.052538838861727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.999047398211528</v>
+        <v>1.044081442011265</v>
       </c>
       <c r="D11">
-        <v>1.019387924314217</v>
+        <v>1.047083202765532</v>
       </c>
       <c r="E11">
-        <v>1.015284936486727</v>
+        <v>1.057392816102861</v>
       </c>
       <c r="F11">
-        <v>1.014960514384042</v>
+        <v>1.063775198840783</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04710954410497</v>
+        <v>1.044765081779776</v>
       </c>
       <c r="J11">
-        <v>1.028459860299259</v>
+        <v>1.050585198287238</v>
       </c>
       <c r="K11">
-        <v>1.033953246287793</v>
+        <v>1.050609699540988</v>
       </c>
       <c r="L11">
-        <v>1.029924245399782</v>
+        <v>1.060882383487909</v>
       </c>
       <c r="M11">
-        <v>1.029605706618953</v>
+        <v>1.067242299621525</v>
       </c>
       <c r="N11">
-        <v>1.029920391266879</v>
+        <v>1.052077149772613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9976227692561621</v>
+        <v>1.043824114916129</v>
       </c>
       <c r="D12">
-        <v>1.018298463359038</v>
+        <v>1.046882610802623</v>
       </c>
       <c r="E12">
-        <v>1.013924068452866</v>
+        <v>1.057130749639863</v>
       </c>
       <c r="F12">
-        <v>1.013443453672064</v>
+        <v>1.063478685760139</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046547907403661</v>
+        <v>1.04468337262311</v>
       </c>
       <c r="J12">
-        <v>1.027528079625855</v>
+        <v>1.050413851212832</v>
       </c>
       <c r="K12">
-        <v>1.033083294339504</v>
+        <v>1.050454272667067</v>
       </c>
       <c r="L12">
-        <v>1.028789280388235</v>
+        <v>1.060665192064854</v>
       </c>
       <c r="M12">
-        <v>1.028317552221385</v>
+        <v>1.066990470469393</v>
       </c>
       <c r="N12">
-        <v>1.028987287358042</v>
+        <v>1.051905559365708</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9979292251004478</v>
+        <v>1.043879312038813</v>
       </c>
       <c r="D13">
-        <v>1.018532785450568</v>
+        <v>1.04692563893382</v>
       </c>
       <c r="E13">
-        <v>1.014216753415899</v>
+        <v>1.057186959980863</v>
       </c>
       <c r="F13">
-        <v>1.013769728528726</v>
+        <v>1.063542282609295</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04666880592182</v>
+        <v>1.0447009106196</v>
       </c>
       <c r="J13">
-        <v>1.027728540468996</v>
+        <v>1.050450610195277</v>
       </c>
       <c r="K13">
-        <v>1.033270464126516</v>
+        <v>1.050487618214101</v>
       </c>
       <c r="L13">
-        <v>1.029033421930264</v>
+        <v>1.060711781560438</v>
       </c>
       <c r="M13">
-        <v>1.028594628355859</v>
+        <v>1.067044487208404</v>
       </c>
       <c r="N13">
-        <v>1.029188032878574</v>
+        <v>1.051942370550123</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9989300274985682</v>
+        <v>1.044060171086574</v>
       </c>
       <c r="D14">
-        <v>1.019298151498679</v>
+        <v>1.047066621985497</v>
       </c>
       <c r="E14">
-        <v>1.01517279412512</v>
+        <v>1.057371151891752</v>
       </c>
       <c r="F14">
-        <v>1.014835499645506</v>
+        <v>1.063750686175454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04706331016699</v>
+        <v>1.044758332681526</v>
       </c>
       <c r="J14">
-        <v>1.028383104204447</v>
+        <v>1.050571036692065</v>
       </c>
       <c r="K14">
-        <v>1.033881588174122</v>
+        <v>1.050596854591668</v>
       </c>
       <c r="L14">
-        <v>1.029830737507424</v>
+        <v>1.060864430916947</v>
       </c>
       <c r="M14">
-        <v>1.029499569643433</v>
+        <v>1.067221482682548</v>
       </c>
       <c r="N14">
-        <v>1.029843526169609</v>
+        <v>1.052062968066349</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9995441336490718</v>
+        <v>1.044171605531481</v>
       </c>
       <c r="D15">
-        <v>1.019767890817677</v>
+        <v>1.047153484903164</v>
       </c>
       <c r="E15">
-        <v>1.015759593826812</v>
+        <v>1.057484649752025</v>
       </c>
       <c r="F15">
-        <v>1.015489658579059</v>
+        <v>1.063879108692476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047305139418899</v>
+        <v>1.044793679790992</v>
       </c>
       <c r="J15">
-        <v>1.028784685736251</v>
+        <v>1.050645222392209</v>
       </c>
       <c r="K15">
-        <v>1.034256487785653</v>
+        <v>1.050664141290792</v>
       </c>
       <c r="L15">
-        <v>1.03031999190215</v>
+        <v>1.060958479718466</v>
       </c>
       <c r="M15">
-        <v>1.030054918514927</v>
+        <v>1.067330539743005</v>
       </c>
       <c r="N15">
-        <v>1.030245677993249</v>
+        <v>1.052137259118697</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003080891005838</v>
+        <v>1.044820221079951</v>
       </c>
       <c r="D16">
-        <v>1.022474664752896</v>
+        <v>1.047659043132415</v>
       </c>
       <c r="E16">
-        <v>1.019141477306288</v>
+        <v>1.058145426656151</v>
       </c>
       <c r="F16">
-        <v>1.019259908335437</v>
+        <v>1.064626861513294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048694143814694</v>
+        <v>1.044998918737785</v>
       </c>
       <c r="J16">
-        <v>1.031096408184651</v>
+        <v>1.051076816194931</v>
       </c>
       <c r="K16">
-        <v>1.036414129972282</v>
+        <v>1.051055512662544</v>
       </c>
       <c r="L16">
-        <v>1.03313782921495</v>
+        <v>1.061505831007546</v>
       </c>
       <c r="M16">
-        <v>1.033254230772652</v>
+        <v>1.067965364984479</v>
       </c>
       <c r="N16">
-        <v>1.032560683352684</v>
+        <v>1.052569465834124</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005267220372934</v>
+        <v>1.045227097518099</v>
       </c>
       <c r="D17">
-        <v>1.024149127899828</v>
+        <v>1.047976147293486</v>
       </c>
       <c r="E17">
-        <v>1.021234128243</v>
+        <v>1.058560064697899</v>
       </c>
       <c r="F17">
-        <v>1.021593036528209</v>
+        <v>1.065096152571446</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049549467186309</v>
+        <v>1.045127222420043</v>
       </c>
       <c r="J17">
-        <v>1.032524481095937</v>
+        <v>1.051347368352672</v>
       </c>
       <c r="K17">
-        <v>1.037746582054231</v>
+        <v>1.051300775010142</v>
       </c>
       <c r="L17">
-        <v>1.034879815252217</v>
+        <v>1.061849123146057</v>
       </c>
       <c r="M17">
-        <v>1.03523276575349</v>
+        <v>1.068363632506152</v>
       </c>
       <c r="N17">
-        <v>1.033990784291306</v>
+        <v>1.052840402206961</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006531228612941</v>
+        <v>1.045464427950443</v>
       </c>
       <c r="D18">
-        <v>1.025117613521645</v>
+        <v>1.048161101789368</v>
       </c>
       <c r="E18">
-        <v>1.022444705041916</v>
+        <v>1.058801970222028</v>
       </c>
       <c r="F18">
-        <v>1.022942795220133</v>
+        <v>1.065369970719436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050042752809916</v>
+        <v>1.04520190220054</v>
       </c>
       <c r="J18">
-        <v>1.033349744615718</v>
+        <v>1.051505113724046</v>
       </c>
       <c r="K18">
-        <v>1.038516425465277</v>
+        <v>1.051443747837962</v>
       </c>
       <c r="L18">
-        <v>1.035886942723536</v>
+        <v>1.06204934281271</v>
       </c>
       <c r="M18">
-        <v>1.036376918515231</v>
+        <v>1.06859595637484</v>
       </c>
       <c r="N18">
-        <v>1.034817219779945</v>
+        <v>1.052998371594857</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006960348964885</v>
+        <v>1.045545352575639</v>
       </c>
       <c r="D19">
-        <v>1.025446473300511</v>
+        <v>1.048224165297447</v>
       </c>
       <c r="E19">
-        <v>1.022855808092794</v>
+        <v>1.058884462947997</v>
       </c>
       <c r="F19">
-        <v>1.023401175902093</v>
+        <v>1.065463350676422</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050210011968059</v>
+        <v>1.045227339346879</v>
       </c>
       <c r="J19">
-        <v>1.033629851452923</v>
+        <v>1.051558890114611</v>
       </c>
       <c r="K19">
-        <v>1.038777693934911</v>
+        <v>1.051492483535133</v>
       </c>
       <c r="L19">
-        <v>1.036228855035874</v>
+        <v>1.062117609695941</v>
       </c>
       <c r="M19">
-        <v>1.036765395287685</v>
+        <v>1.068675176409858</v>
       </c>
       <c r="N19">
-        <v>1.035097724400987</v>
+        <v>1.053052224354065</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005033818473173</v>
+        <v>1.045183442879539</v>
       </c>
       <c r="D20">
-        <v>1.023970327366711</v>
+        <v>1.04794212573956</v>
       </c>
       <c r="E20">
-        <v>1.021010651141955</v>
+        <v>1.058515572358297</v>
       </c>
       <c r="F20">
-        <v>1.021343871653366</v>
+        <v>1.065045792919736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049458282488687</v>
+        <v>1.045113472949174</v>
       </c>
       <c r="J20">
-        <v>1.032372064522058</v>
+        <v>1.05131834719642</v>
       </c>
       <c r="K20">
-        <v>1.037604387707708</v>
+        <v>1.051274469426413</v>
       </c>
       <c r="L20">
-        <v>1.034693847664772</v>
+        <v>1.061812292890474</v>
       </c>
       <c r="M20">
-        <v>1.035021517766463</v>
+        <v>1.068320899983703</v>
       </c>
       <c r="N20">
-        <v>1.03383815126841</v>
+        <v>1.052811339837339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.998635843545879</v>
+        <v>1.044006912352208</v>
       </c>
       <c r="D21">
-        <v>1.019073152544444</v>
+        <v>1.047025106280476</v>
       </c>
       <c r="E21">
-        <v>1.014891734312393</v>
+        <v>1.057316909643443</v>
       </c>
       <c r="F21">
-        <v>1.01452217917251</v>
+        <v>1.063689312728529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046947397234141</v>
+        <v>1.044741430089801</v>
       </c>
       <c r="J21">
-        <v>1.028190710509075</v>
+        <v>1.05053557680681</v>
       </c>
       <c r="K21">
-        <v>1.033701969050142</v>
+        <v>1.050564690833866</v>
       </c>
       <c r="L21">
-        <v>1.029596365827243</v>
+        <v>1.060819480216664</v>
       </c>
       <c r="M21">
-        <v>1.029233550367531</v>
+        <v>1.067169361030208</v>
       </c>
       <c r="N21">
-        <v>1.02965085925312</v>
+        <v>1.052027457823991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9945040147591783</v>
+        <v>1.043267234402012</v>
       </c>
       <c r="D22">
-        <v>1.015914907670403</v>
+        <v>1.046448478676134</v>
       </c>
       <c r="E22">
-        <v>1.0109471627825</v>
+        <v>1.056563749579306</v>
       </c>
       <c r="F22">
-        <v>1.010124975604739</v>
+        <v>1.062837234902784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045315021342063</v>
+        <v>1.044506092174586</v>
       </c>
       <c r="J22">
-        <v>1.025487341867566</v>
+        <v>1.05004284874261</v>
       </c>
       <c r="K22">
-        <v>1.03117754537581</v>
+        <v>1.050117663428998</v>
       </c>
       <c r="L22">
-        <v>1.026304829536613</v>
+        <v>1.060195106593392</v>
       </c>
       <c r="M22">
-        <v>1.025498488250085</v>
+        <v>1.066445531122301</v>
       </c>
       <c r="N22">
-        <v>1.02694365151806</v>
+        <v>1.051534030029423</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9967051258069555</v>
+        <v>1.043659346761986</v>
       </c>
       <c r="D23">
-        <v>1.017596930572857</v>
+        <v>1.046754165573914</v>
       </c>
       <c r="E23">
-        <v>1.013047840067396</v>
+        <v>1.056962967900841</v>
       </c>
       <c r="F23">
-        <v>1.012466673553442</v>
+        <v>1.06328886226797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046185623132788</v>
+        <v>1.044630983842215</v>
       </c>
       <c r="J23">
-        <v>1.02692775167618</v>
+        <v>1.050304107197813</v>
       </c>
       <c r="K23">
-        <v>1.032522735594326</v>
+        <v>1.050354713275984</v>
       </c>
       <c r="L23">
-        <v>1.028058243083807</v>
+        <v>1.060526113418329</v>
       </c>
       <c r="M23">
-        <v>1.027487955838986</v>
+        <v>1.066829229311096</v>
       </c>
       <c r="N23">
-        <v>1.02838610687382</v>
+        <v>1.051795659501598</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005139317398969</v>
+        <v>1.045203168511953</v>
       </c>
       <c r="D24">
-        <v>1.024051144917194</v>
+        <v>1.047957498636884</v>
       </c>
       <c r="E24">
-        <v>1.021111661750095</v>
+        <v>1.058535676363866</v>
       </c>
       <c r="F24">
-        <v>1.021456492801413</v>
+        <v>1.065068548004601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049499502232081</v>
+        <v>1.045119686230058</v>
       </c>
       <c r="J24">
-        <v>1.03244095877675</v>
+        <v>1.051331460802646</v>
       </c>
       <c r="K24">
-        <v>1.037668661888194</v>
+        <v>1.051286356048533</v>
       </c>
       <c r="L24">
-        <v>1.034777905988</v>
+        <v>1.06182893494947</v>
       </c>
       <c r="M24">
-        <v>1.035117002140196</v>
+        <v>1.06834020890561</v>
       </c>
       <c r="N24">
-        <v>1.033907143360846</v>
+        <v>1.05282447206639</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014489044225958</v>
+        <v>1.046994936016001</v>
       </c>
       <c r="D25">
-        <v>1.031221431783591</v>
+        <v>1.049353624104693</v>
       </c>
       <c r="E25">
-        <v>1.030078682998141</v>
+        <v>1.060362842510848</v>
       </c>
       <c r="F25">
-        <v>1.031455951047185</v>
+        <v>1.067137251947214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05312630820176</v>
+        <v>1.045680616346113</v>
       </c>
       <c r="J25">
-        <v>1.038538443041682</v>
+        <v>1.052521171427327</v>
       </c>
       <c r="K25">
-        <v>1.043353664758377</v>
+        <v>1.052364158674508</v>
       </c>
       <c r="L25">
-        <v>1.04222734415142</v>
+        <v>1.063340127197997</v>
       </c>
       <c r="M25">
-        <v>1.043584818268789</v>
+        <v>1.070094447852153</v>
       </c>
       <c r="N25">
-        <v>1.040013286752825</v>
+        <v>1.05401587221662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048424262002884</v>
+        <v>1.021630382059718</v>
       </c>
       <c r="D2">
-        <v>1.050466937145047</v>
+        <v>1.03670779491015</v>
       </c>
       <c r="E2">
-        <v>1.061821906073496</v>
+        <v>1.036948582454596</v>
       </c>
       <c r="F2">
-        <v>1.068790066389022</v>
+        <v>1.039119992993886</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046123027601769</v>
+        <v>1.055857349899924</v>
       </c>
       <c r="J2">
-        <v>1.053468087355162</v>
+        <v>1.043182834005456</v>
       </c>
       <c r="K2">
-        <v>1.05322113440855</v>
+        <v>1.047678365176748</v>
       </c>
       <c r="L2">
-        <v>1.064544924738974</v>
+        <v>1.047916089364489</v>
       </c>
       <c r="M2">
-        <v>1.071494306675087</v>
+        <v>1.050059954746834</v>
       </c>
       <c r="N2">
-        <v>1.054964132873685</v>
+        <v>1.044664273284488</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049462215234939</v>
+        <v>1.026648730709895</v>
       </c>
       <c r="D3">
-        <v>1.051275161843366</v>
+        <v>1.040567554312037</v>
       </c>
       <c r="E3">
-        <v>1.062882318556933</v>
+        <v>1.041787637076023</v>
       </c>
       <c r="F3">
-        <v>1.069991803287285</v>
+        <v>1.044520703104609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04644136644952</v>
+        <v>1.057753077175739</v>
       </c>
       <c r="J3">
-        <v>1.054154478011151</v>
+        <v>1.046438377036564</v>
       </c>
       <c r="K3">
-        <v>1.053841822157775</v>
+        <v>1.050706400885954</v>
       </c>
       <c r="L3">
-        <v>1.065419414454857</v>
+        <v>1.051912362136867</v>
       </c>
       <c r="M3">
-        <v>1.072511131815288</v>
+        <v>1.054613942857602</v>
       </c>
       <c r="N3">
-        <v>1.055651498283135</v>
+        <v>1.047924439560115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.050133906502342</v>
+        <v>1.029823616452509</v>
       </c>
       <c r="D4">
-        <v>1.051798071366729</v>
+        <v>1.043011114725836</v>
       </c>
       <c r="E4">
-        <v>1.063568942066999</v>
+        <v>1.04485420569338</v>
       </c>
       <c r="F4">
-        <v>1.070770173041282</v>
+        <v>1.047944388002355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046646015278282</v>
+        <v>1.058941322378873</v>
       </c>
       <c r="J4">
-        <v>1.054598085243874</v>
+        <v>1.048494019164931</v>
       </c>
       <c r="K4">
-        <v>1.054242730077543</v>
+        <v>1.05261673339852</v>
       </c>
       <c r="L4">
-        <v>1.065985130371908</v>
+        <v>1.054439819512846</v>
       </c>
       <c r="M4">
-        <v>1.073169274899656</v>
+        <v>1.057496654602756</v>
       </c>
       <c r="N4">
-        <v>1.056095735489012</v>
+        <v>1.04998300093609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050416301513871</v>
+        <v>1.031141704746604</v>
       </c>
       <c r="D5">
-        <v>1.052017886288723</v>
+        <v>1.04402593203292</v>
       </c>
       <c r="E5">
-        <v>1.063857710015529</v>
+        <v>1.046128526723482</v>
       </c>
       <c r="F5">
-        <v>1.071097583147129</v>
+        <v>1.049367414137494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046731729281459</v>
+        <v>1.059431934600628</v>
       </c>
       <c r="J5">
-        <v>1.05478444990666</v>
+        <v>1.049346450798985</v>
       </c>
       <c r="K5">
-        <v>1.054411099521599</v>
+        <v>1.053408500057823</v>
       </c>
       <c r="L5">
-        <v>1.066222924399436</v>
+        <v>1.055488899073013</v>
       </c>
       <c r="M5">
-        <v>1.073446003622453</v>
+        <v>1.058693808375853</v>
       </c>
       <c r="N5">
-        <v>1.056282364810995</v>
+        <v>1.05083664312084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050463717822441</v>
+        <v>1.03136206123185</v>
       </c>
       <c r="D6">
-        <v>1.052054793215427</v>
+        <v>1.044195606922805</v>
       </c>
       <c r="E6">
-        <v>1.063906201956747</v>
+        <v>1.046341636188948</v>
       </c>
       <c r="F6">
-        <v>1.071152567507862</v>
+        <v>1.049605410558368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046746102250023</v>
+        <v>1.059513794719703</v>
       </c>
       <c r="J6">
-        <v>1.054815733854946</v>
+        <v>1.049488900193788</v>
       </c>
       <c r="K6">
-        <v>1.054439359385155</v>
+        <v>1.053540787445625</v>
       </c>
       <c r="L6">
-        <v>1.066262849129781</v>
+        <v>1.055664269142951</v>
       </c>
       <c r="M6">
-        <v>1.073492470255293</v>
+        <v>1.058893968022344</v>
       </c>
       <c r="N6">
-        <v>1.056313693186075</v>
+        <v>1.050979294810123</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050137679815202</v>
+        <v>1.029841293299228</v>
       </c>
       <c r="D7">
-        <v>1.051801008608879</v>
+        <v>1.043024723110966</v>
       </c>
       <c r="E7">
-        <v>1.063572800160721</v>
+        <v>1.044871290861715</v>
       </c>
       <c r="F7">
-        <v>1.070774547190042</v>
+        <v>1.047963465672779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046647161851947</v>
+        <v>1.058947912688647</v>
       </c>
       <c r="J7">
-        <v>1.054600575960002</v>
+        <v>1.048505455058597</v>
       </c>
       <c r="K7">
-        <v>1.05424498051538</v>
+        <v>1.052627357062404</v>
       </c>
       <c r="L7">
-        <v>1.065988307916848</v>
+        <v>1.054453889603848</v>
       </c>
       <c r="M7">
-        <v>1.073172972384029</v>
+        <v>1.057512708185313</v>
       </c>
       <c r="N7">
-        <v>1.056098229742241</v>
+        <v>1.049994453070037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048775029570439</v>
+        <v>1.023341753069288</v>
       </c>
       <c r="D8">
-        <v>1.050740093832206</v>
+        <v>1.038023678933175</v>
       </c>
       <c r="E8">
-        <v>1.062180180962782</v>
+        <v>1.038597720348522</v>
       </c>
       <c r="F8">
-        <v>1.069196040574343</v>
+        <v>1.040960304549621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046230888612707</v>
+        <v>1.056506142504432</v>
       </c>
       <c r="J8">
-        <v>1.053700166669133</v>
+        <v>1.044293867167321</v>
       </c>
       <c r="K8">
-        <v>1.053431047388879</v>
+        <v>1.048712097104369</v>
       </c>
       <c r="L8">
-        <v>1.064840491053614</v>
+        <v>1.049279060917434</v>
       </c>
       <c r="M8">
-        <v>1.071837908352729</v>
+        <v>1.051612618008216</v>
       </c>
       <c r="N8">
-        <v>1.055196541766902</v>
+        <v>1.045776884240879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046374363984585</v>
+        <v>1.011302180742599</v>
       </c>
       <c r="D9">
-        <v>1.048870141849277</v>
+        <v>1.02877572568553</v>
       </c>
       <c r="E9">
-        <v>1.059729777569696</v>
+        <v>1.027018871244413</v>
       </c>
       <c r="F9">
-        <v>1.066420365995713</v>
+        <v>1.028043405523369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045487121857094</v>
+        <v>1.051896186054465</v>
       </c>
       <c r="J9">
-        <v>1.052109449866972</v>
+        <v>1.036462046972507</v>
       </c>
       <c r="K9">
-        <v>1.051991299342667</v>
+        <v>1.041418572577952</v>
       </c>
       <c r="L9">
-        <v>1.062816840479855</v>
+        <v>1.039688284643083</v>
       </c>
       <c r="M9">
-        <v>1.069486800678214</v>
+        <v>1.040697312233829</v>
       </c>
       <c r="N9">
-        <v>1.053603565964424</v>
+        <v>1.037933941963066</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044774240967651</v>
+        <v>1.002832268286702</v>
       </c>
       <c r="D10">
-        <v>1.047623206370883</v>
+        <v>1.022284307528665</v>
       </c>
       <c r="E10">
-        <v>1.058098575892874</v>
+        <v>1.018903607725156</v>
       </c>
       <c r="F10">
-        <v>1.064573839087166</v>
+        <v>1.01899471255959</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044984397864271</v>
+        <v>1.048596714811867</v>
       </c>
       <c r="J10">
-        <v>1.051046232654669</v>
+        <v>1.030933963358125</v>
       </c>
       <c r="K10">
-        <v>1.051027784218048</v>
+        <v>1.036262540327177</v>
       </c>
       <c r="L10">
-        <v>1.061467033411151</v>
+        <v>1.032939738598832</v>
       </c>
       <c r="M10">
-        <v>1.067920359777742</v>
+        <v>1.033029276654357</v>
       </c>
       <c r="N10">
-        <v>1.052538838861727</v>
+        <v>1.032398007835872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044081442011265</v>
+        <v>0.9990473982115271</v>
       </c>
       <c r="D11">
-        <v>1.047083202765532</v>
+        <v>1.019387924314216</v>
       </c>
       <c r="E11">
-        <v>1.057392816102861</v>
+        <v>1.015284936486726</v>
       </c>
       <c r="F11">
-        <v>1.063775198840783</v>
+        <v>1.014960514384041</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044765081779776</v>
+        <v>1.047109544104969</v>
       </c>
       <c r="J11">
-        <v>1.050585198287238</v>
+        <v>1.028459860299258</v>
       </c>
       <c r="K11">
-        <v>1.050609699540988</v>
+        <v>1.033953246287791</v>
       </c>
       <c r="L11">
-        <v>1.060882383487909</v>
+        <v>1.02992424539978</v>
       </c>
       <c r="M11">
-        <v>1.067242299621525</v>
+        <v>1.029605706618951</v>
       </c>
       <c r="N11">
-        <v>1.052077149772613</v>
+        <v>1.029920391266878</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043824114916129</v>
+        <v>0.9976227692561613</v>
       </c>
       <c r="D12">
-        <v>1.046882610802623</v>
+        <v>1.018298463359037</v>
       </c>
       <c r="E12">
-        <v>1.057130749639863</v>
+        <v>1.013924068452865</v>
       </c>
       <c r="F12">
-        <v>1.063478685760139</v>
+        <v>1.013443453672063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04468337262311</v>
+        <v>1.046547907403661</v>
       </c>
       <c r="J12">
-        <v>1.050413851212832</v>
+        <v>1.027528079625854</v>
       </c>
       <c r="K12">
-        <v>1.050454272667067</v>
+        <v>1.033083294339503</v>
       </c>
       <c r="L12">
-        <v>1.060665192064854</v>
+        <v>1.028789280388235</v>
       </c>
       <c r="M12">
-        <v>1.066990470469393</v>
+        <v>1.028317552221384</v>
       </c>
       <c r="N12">
-        <v>1.051905559365708</v>
+        <v>1.028987287358041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043879312038813</v>
+        <v>0.9979292251004469</v>
       </c>
       <c r="D13">
-        <v>1.04692563893382</v>
+        <v>1.018532785450567</v>
       </c>
       <c r="E13">
-        <v>1.057186959980863</v>
+        <v>1.014216753415899</v>
       </c>
       <c r="F13">
-        <v>1.063542282609295</v>
+        <v>1.013769728528726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0447009106196</v>
+        <v>1.046668805921819</v>
       </c>
       <c r="J13">
-        <v>1.050450610195277</v>
+        <v>1.027728540468996</v>
       </c>
       <c r="K13">
-        <v>1.050487618214101</v>
+        <v>1.033270464126516</v>
       </c>
       <c r="L13">
-        <v>1.060711781560438</v>
+        <v>1.029033421930263</v>
       </c>
       <c r="M13">
-        <v>1.067044487208404</v>
+        <v>1.028594628355859</v>
       </c>
       <c r="N13">
-        <v>1.051942370550123</v>
+        <v>1.029188032878573</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044060171086574</v>
+        <v>0.99893002749857</v>
       </c>
       <c r="D14">
-        <v>1.047066621985497</v>
+        <v>1.019298151498681</v>
       </c>
       <c r="E14">
-        <v>1.057371151891752</v>
+        <v>1.015172794125121</v>
       </c>
       <c r="F14">
-        <v>1.063750686175454</v>
+        <v>1.014835499645508</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044758332681526</v>
+        <v>1.047063310166992</v>
       </c>
       <c r="J14">
-        <v>1.050571036692065</v>
+        <v>1.028383104204449</v>
       </c>
       <c r="K14">
-        <v>1.050596854591668</v>
+        <v>1.033881588174124</v>
       </c>
       <c r="L14">
-        <v>1.060864430916947</v>
+        <v>1.029830737507426</v>
       </c>
       <c r="M14">
-        <v>1.067221482682548</v>
+        <v>1.029499569643435</v>
       </c>
       <c r="N14">
-        <v>1.052062968066349</v>
+        <v>1.02984352616961</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044171605531481</v>
+        <v>0.9995441336490711</v>
       </c>
       <c r="D15">
-        <v>1.047153484903164</v>
+        <v>1.019767890817677</v>
       </c>
       <c r="E15">
-        <v>1.057484649752025</v>
+        <v>1.015759593826811</v>
       </c>
       <c r="F15">
-        <v>1.063879108692476</v>
+        <v>1.015489658579057</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044793679790992</v>
+        <v>1.047305139418899</v>
       </c>
       <c r="J15">
-        <v>1.050645222392209</v>
+        <v>1.02878468573625</v>
       </c>
       <c r="K15">
-        <v>1.050664141290792</v>
+        <v>1.034256487785653</v>
       </c>
       <c r="L15">
-        <v>1.060958479718466</v>
+        <v>1.030319991902149</v>
       </c>
       <c r="M15">
-        <v>1.067330539743005</v>
+        <v>1.030054918514925</v>
       </c>
       <c r="N15">
-        <v>1.052137259118697</v>
+        <v>1.030245677993249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044820221079951</v>
+        <v>1.00308089100584</v>
       </c>
       <c r="D16">
-        <v>1.047659043132415</v>
+        <v>1.022474664752898</v>
       </c>
       <c r="E16">
-        <v>1.058145426656151</v>
+        <v>1.01914147730629</v>
       </c>
       <c r="F16">
-        <v>1.064626861513294</v>
+        <v>1.019259908335439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044998918737785</v>
+        <v>1.048694143814695</v>
       </c>
       <c r="J16">
-        <v>1.051076816194931</v>
+        <v>1.031096408184653</v>
       </c>
       <c r="K16">
-        <v>1.051055512662544</v>
+        <v>1.036414129972284</v>
       </c>
       <c r="L16">
-        <v>1.061505831007546</v>
+        <v>1.033137829214952</v>
       </c>
       <c r="M16">
-        <v>1.067965364984479</v>
+        <v>1.033254230772654</v>
       </c>
       <c r="N16">
-        <v>1.052569465834124</v>
+        <v>1.032560683352685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045227097518099</v>
+        <v>1.005267220372933</v>
       </c>
       <c r="D17">
-        <v>1.047976147293486</v>
+        <v>1.024149127899827</v>
       </c>
       <c r="E17">
-        <v>1.058560064697899</v>
+        <v>1.021234128243</v>
       </c>
       <c r="F17">
-        <v>1.065096152571446</v>
+        <v>1.021593036528208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045127222420043</v>
+        <v>1.049549467186309</v>
       </c>
       <c r="J17">
-        <v>1.051347368352672</v>
+        <v>1.032524481095936</v>
       </c>
       <c r="K17">
-        <v>1.051300775010142</v>
+        <v>1.03774658205423</v>
       </c>
       <c r="L17">
-        <v>1.061849123146057</v>
+        <v>1.034879815252216</v>
       </c>
       <c r="M17">
-        <v>1.068363632506152</v>
+        <v>1.03523276575349</v>
       </c>
       <c r="N17">
-        <v>1.052840402206961</v>
+        <v>1.033990784291305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045464427950443</v>
+        <v>1.006531228612939</v>
       </c>
       <c r="D18">
-        <v>1.048161101789368</v>
+        <v>1.025117613521644</v>
       </c>
       <c r="E18">
-        <v>1.058801970222028</v>
+        <v>1.022444705041914</v>
       </c>
       <c r="F18">
-        <v>1.065369970719436</v>
+        <v>1.022942795220132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04520190220054</v>
+        <v>1.050042752809915</v>
       </c>
       <c r="J18">
-        <v>1.051505113724046</v>
+        <v>1.033349744615717</v>
       </c>
       <c r="K18">
-        <v>1.051443747837962</v>
+        <v>1.038516425465275</v>
       </c>
       <c r="L18">
-        <v>1.06204934281271</v>
+        <v>1.035886942723534</v>
       </c>
       <c r="M18">
-        <v>1.06859595637484</v>
+        <v>1.03637691851523</v>
       </c>
       <c r="N18">
-        <v>1.052998371594857</v>
+        <v>1.034817219779943</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045545352575639</v>
+        <v>1.006960348964886</v>
       </c>
       <c r="D19">
-        <v>1.048224165297447</v>
+        <v>1.025446473300512</v>
       </c>
       <c r="E19">
-        <v>1.058884462947997</v>
+        <v>1.022855808092795</v>
       </c>
       <c r="F19">
-        <v>1.065463350676422</v>
+        <v>1.023401175902095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045227339346879</v>
+        <v>1.050210011968059</v>
       </c>
       <c r="J19">
-        <v>1.051558890114611</v>
+        <v>1.033629851452924</v>
       </c>
       <c r="K19">
-        <v>1.051492483535133</v>
+        <v>1.038777693934912</v>
       </c>
       <c r="L19">
-        <v>1.062117609695941</v>
+        <v>1.036228855035875</v>
       </c>
       <c r="M19">
-        <v>1.068675176409858</v>
+        <v>1.036765395287686</v>
       </c>
       <c r="N19">
-        <v>1.053052224354065</v>
+        <v>1.035097724400988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045183442879539</v>
+        <v>1.005033818473172</v>
       </c>
       <c r="D20">
-        <v>1.04794212573956</v>
+        <v>1.02397032736671</v>
       </c>
       <c r="E20">
-        <v>1.058515572358297</v>
+        <v>1.021010651141954</v>
       </c>
       <c r="F20">
-        <v>1.065045792919736</v>
+        <v>1.021343871653365</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045113472949174</v>
+        <v>1.049458282488686</v>
       </c>
       <c r="J20">
-        <v>1.05131834719642</v>
+        <v>1.032372064522057</v>
       </c>
       <c r="K20">
-        <v>1.051274469426413</v>
+        <v>1.037604387707708</v>
       </c>
       <c r="L20">
-        <v>1.061812292890474</v>
+        <v>1.034693847664771</v>
       </c>
       <c r="M20">
-        <v>1.068320899983703</v>
+        <v>1.035021517766462</v>
       </c>
       <c r="N20">
-        <v>1.052811339837339</v>
+        <v>1.033838151268409</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044006912352208</v>
+        <v>0.9986358435458783</v>
       </c>
       <c r="D21">
-        <v>1.047025106280476</v>
+        <v>1.019073152544444</v>
       </c>
       <c r="E21">
-        <v>1.057316909643443</v>
+        <v>1.014891734312392</v>
       </c>
       <c r="F21">
-        <v>1.063689312728529</v>
+        <v>1.014522179172509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044741430089801</v>
+        <v>1.046947397234141</v>
       </c>
       <c r="J21">
-        <v>1.05053557680681</v>
+        <v>1.028190710509074</v>
       </c>
       <c r="K21">
-        <v>1.050564690833866</v>
+        <v>1.033701969050142</v>
       </c>
       <c r="L21">
-        <v>1.060819480216664</v>
+        <v>1.029596365827243</v>
       </c>
       <c r="M21">
-        <v>1.067169361030208</v>
+        <v>1.02923355036753</v>
       </c>
       <c r="N21">
-        <v>1.052027457823991</v>
+        <v>1.02965085925312</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043267234402012</v>
+        <v>0.9945040147591775</v>
       </c>
       <c r="D22">
-        <v>1.046448478676134</v>
+        <v>1.015914907670402</v>
       </c>
       <c r="E22">
-        <v>1.056563749579306</v>
+        <v>1.010947162782498</v>
       </c>
       <c r="F22">
-        <v>1.062837234902784</v>
+        <v>1.010124975604739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044506092174586</v>
+        <v>1.045315021342062</v>
       </c>
       <c r="J22">
-        <v>1.05004284874261</v>
+        <v>1.025487341867565</v>
       </c>
       <c r="K22">
-        <v>1.050117663428998</v>
+        <v>1.031177545375809</v>
       </c>
       <c r="L22">
-        <v>1.060195106593392</v>
+        <v>1.026304829536612</v>
       </c>
       <c r="M22">
-        <v>1.066445531122301</v>
+        <v>1.025498488250085</v>
       </c>
       <c r="N22">
-        <v>1.051534030029423</v>
+        <v>1.026943651518059</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043659346761986</v>
+        <v>0.9967051258069562</v>
       </c>
       <c r="D23">
-        <v>1.046754165573914</v>
+        <v>1.017596930572858</v>
       </c>
       <c r="E23">
-        <v>1.056962967900841</v>
+        <v>1.013047840067397</v>
       </c>
       <c r="F23">
-        <v>1.06328886226797</v>
+        <v>1.012466673553442</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044630983842215</v>
+        <v>1.046185623132789</v>
       </c>
       <c r="J23">
-        <v>1.050304107197813</v>
+        <v>1.026927751676181</v>
       </c>
       <c r="K23">
-        <v>1.050354713275984</v>
+        <v>1.032522735594327</v>
       </c>
       <c r="L23">
-        <v>1.060526113418329</v>
+        <v>1.028058243083808</v>
       </c>
       <c r="M23">
-        <v>1.066829229311096</v>
+        <v>1.027487955838987</v>
       </c>
       <c r="N23">
-        <v>1.051795659501598</v>
+        <v>1.028386106873821</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045203168511953</v>
+        <v>1.005139317398969</v>
       </c>
       <c r="D24">
-        <v>1.047957498636884</v>
+        <v>1.024051144917194</v>
       </c>
       <c r="E24">
-        <v>1.058535676363866</v>
+        <v>1.021111661750095</v>
       </c>
       <c r="F24">
-        <v>1.065068548004601</v>
+        <v>1.021456492801413</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045119686230058</v>
+        <v>1.049499502232081</v>
       </c>
       <c r="J24">
-        <v>1.051331460802646</v>
+        <v>1.03244095877675</v>
       </c>
       <c r="K24">
-        <v>1.051286356048533</v>
+        <v>1.037668661888194</v>
       </c>
       <c r="L24">
-        <v>1.06182893494947</v>
+        <v>1.034777905988</v>
       </c>
       <c r="M24">
-        <v>1.06834020890561</v>
+        <v>1.035117002140196</v>
       </c>
       <c r="N24">
-        <v>1.05282447206639</v>
+        <v>1.033907143360846</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046994936016001</v>
+        <v>1.014489044225958</v>
       </c>
       <c r="D25">
-        <v>1.049353624104693</v>
+        <v>1.031221431783591</v>
       </c>
       <c r="E25">
-        <v>1.060362842510848</v>
+        <v>1.030078682998142</v>
       </c>
       <c r="F25">
-        <v>1.067137251947214</v>
+        <v>1.031455951047186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045680616346113</v>
+        <v>1.05312630820176</v>
       </c>
       <c r="J25">
-        <v>1.052521171427327</v>
+        <v>1.038538443041682</v>
       </c>
       <c r="K25">
-        <v>1.052364158674508</v>
+        <v>1.043353664758377</v>
       </c>
       <c r="L25">
-        <v>1.063340127197997</v>
+        <v>1.04222734415142</v>
       </c>
       <c r="M25">
-        <v>1.070094447852153</v>
+        <v>1.04358481826879</v>
       </c>
       <c r="N25">
-        <v>1.05401587221662</v>
+        <v>1.040013286752826</v>
       </c>
     </row>
   </sheetData>
